--- a/Formulasation(shacl)/core/Templates/SHACL-kind.xlsx
+++ b/Formulasation(shacl)/core/Templates/SHACL-kind.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GDI/shacl_template_GDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/gdi-metadata/Formulasation(shacl)/core/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{CC90F1A9-7F52-8148-BE94-617DCF70111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8900C538-81C7-400D-A9F2-F8AD89070914}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prefixes" sheetId="1" r:id="rId1"/>
@@ -1855,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">NOW()</f>
-        <v>45842.486298263888</v>
+        <v>45849.414945138888</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2392,10 +2392,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2937,6 +2937,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Persoon>
+    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6c59cfd598d1d7de5b45c1822abcd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67714481eaab3d0eef8b708c465ce66d" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -3224,27 +3245,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Persoon>
-    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3255,6 +3255,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C2A762-C9A0-490C-9DDC-F35C0AECA17E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA23D19-24C0-474F-8727-FF9E86A2BD56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3273,17 +3284,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C2A762-C9A0-490C-9DDC-F35C0AECA17E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE3AE30-F94D-4B2D-A964-81B3B3999808}">
   <ds:schemaRefs>
